--- a/solid waste 11.xlsx
+++ b/solid waste 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1582F885-F479-493B-A44E-E2CBD203F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E9DED-029A-4D19-A8FD-B034B2FD30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8091BEAF-5EAD-4653-8294-85A4386B8F30}"/>
   </bookViews>
@@ -131,23 +131,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3A545-B8A7-4135-B09D-F93BC976232B}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" activeCellId="1" sqref="A1:XFD1 A19:XFD19"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,37 +471,33 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>2017</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>2020</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>2021</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -518,7 +511,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -532,7 +525,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -546,7 +539,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -560,7 +553,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -574,7 +567,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -588,7 +581,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -602,7 +595,7 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>1183</v>
@@ -614,7 +607,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,7 +621,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -642,7 +635,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -656,7 +649,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -670,7 +663,7 @@
         <v>6091</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -684,7 +677,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
